--- a/maps/FL/FL20C_candidates.xlsx
+++ b/maps/FL/FL20C_candidates.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/FL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5048361-7446-D547-93D4-C9FA295FB962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9C3517-BA7A-2E41-B111-53E610F38138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7400" yWindow="6560" windowWidth="27640" windowHeight="17500" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
+    <sheet name="ENERGIES" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="FL20C_energies" localSheetId="2">ENERGIES!$A$1:$B$51</definedName>
     <definedName name="NC20C_candidates" localSheetId="1">DATA!$A$1:$I$51</definedName>
     <definedName name="WA20C_energies" localSheetId="1">DATA!$A$1:$I$51</definedName>
   </definedNames>
@@ -42,7 +44,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{0A068D4B-DECE-2C47-9741-13AD2A4BEF96}" name="NC20C_candidates1" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{06588FC2-AF38-854A-9835-17DAEFA50662}" name="FL20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/FL/FL20C_energies.csv" comma="1">
+      <textFields count="2">
+        <textField type="text"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{0A068D4B-DECE-2C47-9741-13AD2A4BEF96}" name="NC20C_candidates1" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/NC/NC20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
@@ -57,7 +67,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{2A8C1F5B-279D-584B-8B5C-4F3DB75AD51E}" name="WA20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="3" xr16:uid="{2A8C1F5B-279D-584B-8B5C-4F3DB75AD51E}" name="WA20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/FL/FL20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
@@ -76,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
   <si>
     <t>#</t>
   </si>
@@ -427,6 +437,15 @@
   </si>
   <si>
     <t>0.861806</t>
+  </si>
+  <si>
+    <t>MAP'</t>
+  </si>
+  <si>
+    <t>ENERGY'</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -438,7 +457,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,8 +480,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +506,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -539,6 +579,17 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,11 +609,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="2" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="3" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FL20C_energies" connectionId="1" xr16:uid="{7DA74B71-FB2E-3543-B765-BB2268AB974E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -959,7 +1014,7 @@
       </c>
       <c r="B6" s="18">
         <f>AVERAGE(DATA!E$2:E$51)</f>
-        <v>1.3121799999999999E-2</v>
+        <v>1.3121799999999996E-2</v>
       </c>
       <c r="C6" s="5">
         <f>AVERAGE(DATA!F$2:F$51)</f>
@@ -967,11 +1022,11 @@
       </c>
       <c r="D6" s="5">
         <f>AVERAGE(DATA!G$2:G$51)</f>
-        <v>0.79576634000000013</v>
+        <v>0.79576634000000002</v>
       </c>
       <c r="E6" s="5">
         <f>AVERAGE(DATA!H$2:H$51)</f>
-        <v>0.70666118000000022</v>
+        <v>0.70666118000000044</v>
       </c>
       <c r="F6" s="5" t="e">
         <f>AVERAGE(DATA!I$2:I$51)</f>
@@ -1009,19 +1064,19 @@
       </c>
       <c r="B8" s="22">
         <f>STDEV(DATA!E$2:E$51)</f>
-        <v>7.605234955916476E-3</v>
+        <v>7.6052349559164803E-3</v>
       </c>
       <c r="C8" s="10">
         <f>STDEV(DATA!F$2:F$51)</f>
-        <v>5.1780952126342893E-2</v>
+        <v>5.1780952126342907E-2</v>
       </c>
       <c r="D8" s="10">
         <f>STDEV(DATA!G$2:G$51)</f>
-        <v>8.2606476624229888E-2</v>
+        <v>8.2606476624231637E-2</v>
       </c>
       <c r="E8" s="10">
         <f>STDEV(DATA!H$2:H$51)</f>
-        <v>0.20947135218592364</v>
+        <v>0.20947135218592311</v>
       </c>
       <c r="F8" s="10" t="e">
         <f>STDEV(DATA!I$2:I$51)</f>
@@ -1076,13 +1131,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E879E283-F11F-BE4E-82D7-D1F9AF3BA95A}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1096,9 +1151,12 @@
     <col min="7" max="7" width="8.1640625" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1126,66 +1184,88 @@
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
+      <c r="J1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="33">
+        <v>28</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35">
+        <v>4152318.5596070001</v>
+      </c>
+      <c r="E2" s="36">
+        <v>9.5099999999999994E-3</v>
+      </c>
+      <c r="F2" s="36">
+        <v>2.3089999999999999E-3</v>
+      </c>
+      <c r="G2" s="36">
+        <v>0.94325499999999995</v>
+      </c>
+      <c r="H2" s="37">
+        <v>0.29461100000000001</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="33"/>
+      <c r="K2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="39">
+        <v>1556393.415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="24">
         <v>66</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26">
+      <c r="C3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26">
         <v>4142753.9009600002</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E3" s="27">
         <v>7.92E-3</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F3" s="27">
         <v>0</v>
       </c>
-      <c r="G2" s="27">
-        <v>1</v>
-      </c>
-      <c r="H2" s="28">
+      <c r="G3" s="27">
+        <v>1</v>
+      </c>
+      <c r="H3" s="28">
         <v>0</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19">
-        <v>4152318.5596070001</v>
-      </c>
-      <c r="E3" s="18">
-        <v>9.5099999999999994E-3</v>
-      </c>
-      <c r="F3" s="18">
-        <v>2.3089999999999999E-3</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0.94325499999999995</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.29461100000000001</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="30">
+        <v>1559467.226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>69</v>
       </c>
@@ -1213,8 +1293,14 @@
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="30">
+        <v>1569544.5290000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1242,298 +1328,364 @@
       <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="30">
+        <v>1581650.3289999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <v>4230554.7647329997</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1.0789999999999999E-2</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2.1194000000000001E-2</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.90722000000000003</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.45872400000000002</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="30">
+        <v>1582363.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>4248375.2200910002</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1.3480000000000001E-2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>2.5495E-2</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.88985099999999995</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.51137999999999995</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="30">
+        <v>1583082.311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>93</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>4233007.5009199996</v>
+      </c>
+      <c r="E8" s="18">
+        <v>3.0970000000000001E-2</v>
+      </c>
+      <c r="F8" s="18">
+        <v>2.1786E-2</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0.86530799999999997</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.56298599999999999</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="30">
+        <v>1585832.5220000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>89</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
         <v>4202359.1279640002</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E9" s="18">
         <v>1.78E-2</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F9" s="18">
         <v>1.4388E-2</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G9" s="18">
         <v>0.90227800000000002</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H9" s="6">
         <v>0.45922200000000002</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="K9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="30">
+        <v>1598045.946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19">
+        <v>4261782.2628290001</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1.057E-2</v>
+      </c>
+      <c r="F10" s="18">
+        <v>2.8732000000000001E-2</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0.88509199999999999</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.52230200000000004</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="30">
+        <v>1605652.963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <v>4264429.5311620003</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1.0279999999999999E-2</v>
+      </c>
+      <c r="F11" s="18">
+        <v>2.9371000000000001E-2</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0.84525300000000003</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.54139400000000004</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="30">
+        <v>1607620.128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19">
+        <v>4239290.156405</v>
+      </c>
+      <c r="E12" s="18">
+        <v>9.7400000000000004E-3</v>
+      </c>
+      <c r="F12" s="18">
+        <v>2.3302E-2</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0.83381499999999997</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.65677399999999997</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="30">
+        <v>1608134.5870000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19">
+        <v>4277757.8378640004</v>
+      </c>
+      <c r="E13" s="18">
+        <v>7.62E-3</v>
+      </c>
+      <c r="F13" s="18">
+        <v>3.2587999999999999E-2</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0.85147700000000004</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.499224</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="30">
+        <v>1627596.4369999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19">
+        <v>4311782.0712329997</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1.2409999999999999E-2</v>
+      </c>
+      <c r="F14" s="18">
+        <v>4.0800999999999997E-2</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.84561200000000003</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.611676</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="30">
+        <v>1630906.9080000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>76</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19">
         <v>4212079.1470489996</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E15" s="18">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F15" s="18">
         <v>1.6733999999999999E-2</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G15" s="18">
         <v>0.892953</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H15" s="6">
         <v>0.49179400000000001</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="19">
-        <v>4230554.7647329997</v>
-      </c>
-      <c r="E8" s="18">
-        <v>1.0789999999999999E-2</v>
-      </c>
-      <c r="F8" s="18">
-        <v>2.1194000000000001E-2</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0.90722000000000003</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.45872400000000002</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>93</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
-        <v>4233007.5009199996</v>
-      </c>
-      <c r="E9" s="18">
-        <v>3.0970000000000001E-2</v>
-      </c>
-      <c r="F9" s="18">
-        <v>2.1786E-2</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0.86530799999999997</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.56298599999999999</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>61</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="19">
-        <v>4239290.156405</v>
-      </c>
-      <c r="E10" s="18">
-        <v>9.7400000000000004E-3</v>
-      </c>
-      <c r="F10" s="18">
-        <v>2.3302E-2</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0.83381499999999997</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.65677399999999997</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>64</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
-        <v>4240713.9809699999</v>
-      </c>
-      <c r="E11" s="18">
-        <v>6.9300000000000004E-3</v>
-      </c>
-      <c r="F11" s="18">
-        <v>2.3646E-2</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0.87215399999999998</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.59180999999999995</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>51</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="19">
-        <v>4248375.2200910002</v>
-      </c>
-      <c r="E12" s="18">
-        <v>1.3480000000000001E-2</v>
-      </c>
-      <c r="F12" s="18">
-        <v>2.5495E-2</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0.88985099999999995</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.51137999999999995</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>97</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="19">
-        <v>4258704.5274590002</v>
-      </c>
-      <c r="E13" s="18">
-        <v>9.0299999999999998E-3</v>
-      </c>
-      <c r="F13" s="18">
-        <v>2.7989E-2</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0.80969400000000002</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.64320100000000002</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="19">
-        <v>4261782.2628290001</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1.057E-2</v>
-      </c>
-      <c r="F14" s="18">
-        <v>2.8732000000000001E-2</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0.88509199999999999</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.52230200000000004</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19">
-        <v>4264429.5311620003</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1.0279999999999999E-2</v>
-      </c>
-      <c r="F15" s="18">
-        <v>2.9371000000000001E-2</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0.84525300000000003</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0.54139400000000004</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K15" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="30">
+        <v>1635218.902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>60</v>
       </c>
@@ -1561,240 +1713,294 @@
       <c r="I16" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="30">
+        <v>1635242.57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="19">
-        <v>4277757.8378640004</v>
+        <v>4322975.2942530001</v>
       </c>
       <c r="E17" s="18">
-        <v>7.62E-3</v>
+        <v>1.312E-2</v>
       </c>
       <c r="F17" s="18">
-        <v>3.2587999999999999E-2</v>
+        <v>4.3503E-2</v>
       </c>
       <c r="G17" s="18">
-        <v>0.85147700000000004</v>
+        <v>0.83454399999999995</v>
       </c>
       <c r="H17" s="6">
-        <v>0.499224</v>
+        <v>0.62897000000000003</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="30">
+        <v>1636620.423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>97</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19">
+        <v>4258704.5274590002</v>
+      </c>
+      <c r="E18" s="18">
+        <v>9.0299999999999998E-3</v>
+      </c>
+      <c r="F18" s="18">
+        <v>2.7989E-2</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0.80969400000000002</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.64320100000000002</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="30">
+        <v>1648691.9739999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19">
+        <v>4337187.095245</v>
+      </c>
+      <c r="E19" s="18">
+        <v>9.3200000000000002E-3</v>
+      </c>
+      <c r="F19" s="18">
+        <v>4.6933000000000002E-2</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.80009399999999997</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.73197500000000004</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="30">
+        <v>1684782.9280000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19">
+        <v>4240713.9809699999</v>
+      </c>
+      <c r="E20" s="18">
+        <v>6.9300000000000004E-3</v>
+      </c>
+      <c r="F20" s="18">
+        <v>2.3646E-2</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0.87215399999999998</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.59180999999999995</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="30">
+        <v>1687294.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>63</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="19">
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="19">
         <v>4302458.7706890004</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E21" s="18">
         <v>7.1399999999999996E-3</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F21" s="18">
         <v>3.8550000000000001E-2</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G21" s="18">
         <v>0.82644200000000001</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H21" s="6">
         <v>0.69488099999999997</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>84</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19">
-        <v>4311782.0712329997</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1.2409999999999999E-2</v>
-      </c>
-      <c r="F19" s="18">
-        <v>4.0800999999999997E-2</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0.84561200000000003</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0.611676</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="K21" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="30">
+        <v>1688127.642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>39</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="19">
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="19">
         <v>4315202.7533409996</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E22" s="18">
         <v>2.197E-2</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F22" s="18">
         <v>4.1626999999999997E-2</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G22" s="18">
         <v>0.864394</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H22" s="6">
         <v>0.62268199999999996</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>70</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="19">
-        <v>4322975.2942530001</v>
-      </c>
-      <c r="E21" s="18">
-        <v>1.312E-2</v>
-      </c>
-      <c r="F21" s="18">
-        <v>4.3503E-2</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0.83454399999999995</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0.62897000000000003</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="19">
-        <v>4337187.095245</v>
-      </c>
-      <c r="E22" s="18">
-        <v>9.3200000000000002E-3</v>
-      </c>
-      <c r="F22" s="18">
-        <v>4.6933000000000002E-2</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0.80009399999999997</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0.73197500000000004</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="30">
+        <v>1688707.754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="19">
-        <v>4416943.1266869996</v>
+        <v>4426418.06654</v>
       </c>
       <c r="E23" s="18">
-        <v>6.7000000000000002E-3</v>
+        <v>1.0460000000000001E-2</v>
       </c>
       <c r="F23" s="18">
-        <v>6.6184999999999994E-2</v>
+        <v>6.8472000000000005E-2</v>
       </c>
       <c r="G23" s="18">
-        <v>0.75704700000000003</v>
+        <v>0.83708700000000003</v>
       </c>
       <c r="H23" s="6">
-        <v>0.886934</v>
+        <v>0.50775000000000003</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="30">
+        <v>1704846.2039999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="19">
-        <v>4426418.06654</v>
+        <v>4460049.0684479997</v>
       </c>
       <c r="E24" s="18">
-        <v>1.0460000000000001E-2</v>
+        <v>8.5299999999999994E-3</v>
       </c>
       <c r="F24" s="18">
-        <v>6.8472000000000005E-2</v>
+        <v>7.6590000000000005E-2</v>
       </c>
       <c r="G24" s="18">
-        <v>0.83708700000000003</v>
+        <v>0.77488999999999997</v>
       </c>
       <c r="H24" s="6">
-        <v>0.50775000000000003</v>
+        <v>0.73475699999999999</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="30">
+        <v>1734810.666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>92</v>
       </c>
@@ -1822,211 +2028,259 @@
       <c r="I25" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K25" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="30">
+        <v>1742049.1910000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="19">
+        <v>4416943.1266869996</v>
+      </c>
+      <c r="E26" s="18">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="F26" s="18">
+        <v>6.6184999999999994E-2</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0.75704700000000003</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.886934</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="30">
+        <v>1749658.86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="19">
+        <v>4520350.8902190002</v>
+      </c>
+      <c r="E27" s="18">
+        <v>7.9100000000000004E-3</v>
+      </c>
+      <c r="F27" s="18">
+        <v>9.1146000000000005E-2</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0.79081699999999999</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.66868899999999998</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" s="30">
+        <v>1753903.423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>80</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="19">
+        <v>4449048.4898429997</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="F28" s="18">
+        <v>7.3935000000000001E-2</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0.78716900000000001</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.77094600000000002</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="30">
+        <v>1773620.9569999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>3</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="19">
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="19">
         <v>4444266.3825549996</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E29" s="18">
         <v>8.6E-3</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F29" s="18">
         <v>7.2780999999999998E-2</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G29" s="18">
         <v>0.82713000000000003</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H29" s="6">
         <v>0.72595500000000002</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>80</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="19">
-        <v>4449048.4898429997</v>
-      </c>
-      <c r="E27" s="18">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="F27" s="18">
-        <v>7.3935000000000001E-2</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0.78716900000000001</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0.77094600000000002</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="K29" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="30">
+        <v>1786923.2720000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="19">
+        <v>4487947.9914659997</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1.3310000000000001E-2</v>
+      </c>
+      <c r="F30" s="18">
+        <v>8.3324999999999996E-2</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0.78987799999999997</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.823264</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="30">
+        <v>1797516.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="B31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="19">
+        <v>4456216.8641910003</v>
+      </c>
+      <c r="E31" s="18">
+        <v>8.5699999999999995E-3</v>
+      </c>
+      <c r="F31" s="18">
+        <v>7.5664999999999996E-2</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0.78292899999999999</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.78219499999999997</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="30">
+        <v>1802105.325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>78</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="19">
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="19">
         <v>4451242.5274529997</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E32" s="18">
         <v>8.8599999999999998E-3</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F32" s="18">
         <v>7.4465000000000003E-2</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G32" s="18">
         <v>0.81471899999999997</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H32" s="6">
         <v>0.70435300000000001</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>68</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="19">
-        <v>4456216.8641910003</v>
-      </c>
-      <c r="E29" s="18">
-        <v>8.5699999999999995E-3</v>
-      </c>
-      <c r="F29" s="18">
-        <v>7.5664999999999996E-2</v>
-      </c>
-      <c r="G29" s="18">
-        <v>0.78292899999999999</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0.78219499999999997</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="19">
-        <v>4460049.0684479997</v>
-      </c>
-      <c r="E30" s="18">
-        <v>8.5299999999999994E-3</v>
-      </c>
-      <c r="F30" s="18">
-        <v>7.6590000000000005E-2</v>
-      </c>
-      <c r="G30" s="18">
-        <v>0.77488999999999997</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0.73475699999999999</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>74</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="19">
-        <v>4487947.9914659997</v>
-      </c>
-      <c r="E31" s="18">
-        <v>1.3310000000000001E-2</v>
-      </c>
-      <c r="F31" s="18">
-        <v>8.3324999999999996E-2</v>
-      </c>
-      <c r="G31" s="18">
-        <v>0.78987799999999997</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0.823264</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="19">
-        <v>4520350.8902190002</v>
-      </c>
-      <c r="E32" s="18">
-        <v>7.9100000000000004E-3</v>
-      </c>
-      <c r="F32" s="18">
-        <v>9.1146000000000005E-2</v>
-      </c>
-      <c r="G32" s="18">
-        <v>0.79081699999999999</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0.66868899999999998</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K32" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="30">
+        <v>1815438.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>95</v>
       </c>
@@ -2054,8 +2308,14 @@
       <c r="I33" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K33" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" s="30">
+        <v>1821244.844</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>22</v>
       </c>
@@ -2083,8 +2343,14 @@
       <c r="I34" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K34" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" s="30">
+        <v>1837592.9950000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>65</v>
       </c>
@@ -2112,8 +2378,14 @@
       <c r="I35" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K35" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="L35" s="30">
+        <v>1886671.83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>26</v>
       </c>
@@ -2141,182 +2413,224 @@
       <c r="I36" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K36" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="L36" s="30">
+        <v>1900777.3829999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="19">
+        <v>4629880.7534299996</v>
+      </c>
+      <c r="E37" s="18">
+        <v>7.1900000000000002E-3</v>
+      </c>
+      <c r="F37" s="18">
+        <v>0.117585</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0.71497200000000005</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0.86082700000000001</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="30">
+        <v>1911891.628</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>50</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="19">
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="19">
         <v>4616959.6957550002</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E38" s="18">
         <v>9.1699999999999993E-3</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F38" s="18">
         <v>0.114466</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G38" s="18">
         <v>0.72114</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H38" s="6">
         <v>0.93141399999999996</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="K38" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" s="30">
+        <v>1920781.443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>86</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="19">
+        <v>4691368.3341199998</v>
+      </c>
+      <c r="E39" s="18">
+        <v>1.455E-2</v>
+      </c>
+      <c r="F39" s="18">
+        <v>0.13242699999999999</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0.74645600000000001</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.78972600000000004</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="L39" s="30">
+        <v>1935022.3559999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>32</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" s="19">
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="19">
         <v>4628479.4478129996</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E40" s="18">
         <v>9.6399999999999993E-3</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F40" s="18">
         <v>0.117247</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G40" s="18">
         <v>0.74295800000000001</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H40" s="6">
         <v>0.82747099999999996</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>57</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="19">
-        <v>4629880.7534299996</v>
-      </c>
-      <c r="E39" s="18">
-        <v>7.1900000000000002E-3</v>
-      </c>
-      <c r="F39" s="18">
-        <v>0.117585</v>
-      </c>
-      <c r="G39" s="18">
-        <v>0.71497200000000005</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0.86082700000000001</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="K40" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="L40" s="30">
+        <v>1937414.774</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="19">
+        <v>4703230.524522</v>
+      </c>
+      <c r="E41" s="18">
+        <v>1.116E-2</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0.13529099999999999</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0.77230600000000005</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0.76562799999999998</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="L41" s="30">
+        <v>1939536.057</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>10</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="19">
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="19">
         <v>4666685.9788410002</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E42" s="18">
         <v>9.7400000000000004E-3</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F42" s="18">
         <v>0.12647</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G42" s="18">
         <v>0.704677</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H42" s="6">
         <v>0.94516</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>87</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" s="19">
-        <v>4689284.5795489997</v>
-      </c>
-      <c r="E41" s="18">
-        <v>2.938E-2</v>
-      </c>
-      <c r="F41" s="18">
-        <v>0.13192400000000001</v>
-      </c>
-      <c r="G41" s="18">
-        <v>0.792848</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0.684975</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>86</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" s="19">
-        <v>4691368.3341199998</v>
-      </c>
-      <c r="E42" s="18">
-        <v>1.455E-2</v>
-      </c>
-      <c r="F42" s="18">
-        <v>0.13242699999999999</v>
-      </c>
-      <c r="G42" s="18">
-        <v>0.74645600000000001</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0.78972600000000004</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K42" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L42" s="30">
+        <v>1943801.432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>96</v>
       </c>
@@ -2344,95 +2658,119 @@
       <c r="I43" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K43" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="L43" s="30">
+        <v>1949967.7890000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
+        <v>87</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="19">
+        <v>4689284.5795489997</v>
+      </c>
+      <c r="E44" s="18">
+        <v>2.938E-2</v>
+      </c>
+      <c r="F44" s="18">
+        <v>0.13192400000000001</v>
+      </c>
+      <c r="G44" s="18">
+        <v>0.792848</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.684975</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L44" s="30">
+        <v>1955170.2960000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" s="19">
+        <v>4717577.4485240001</v>
+      </c>
+      <c r="E45" s="18">
+        <v>1.3650000000000001E-2</v>
+      </c>
+      <c r="F45" s="18">
+        <v>0.13875399999999999</v>
+      </c>
+      <c r="G45" s="18">
+        <v>0.697959</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.96245400000000003</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="L45" s="30">
+        <v>1958786.6669999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>83</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C44" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" s="19">
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="19">
         <v>4698040.3090009997</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E46" s="18">
         <v>9.0299999999999998E-3</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F46" s="18">
         <v>0.13403799999999999</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G46" s="18">
         <v>0.65327800000000003</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H46" s="6">
         <v>1.0145850000000001</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" s="19">
-        <v>4703230.524522</v>
-      </c>
-      <c r="E45" s="18">
-        <v>1.116E-2</v>
-      </c>
-      <c r="F45" s="18">
-        <v>0.13529099999999999</v>
-      </c>
-      <c r="G45" s="18">
-        <v>0.77230600000000005</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0.76562799999999998</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>19</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" t="b">
-        <v>1</v>
-      </c>
-      <c r="D46" s="19">
-        <v>4717577.4485240001</v>
-      </c>
-      <c r="E46" s="18">
-        <v>1.3650000000000001E-2</v>
-      </c>
-      <c r="F46" s="18">
-        <v>0.13875399999999999</v>
-      </c>
-      <c r="G46" s="18">
-        <v>0.697959</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0.96245400000000003</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K46" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L46" s="30">
+        <v>1958913.9080000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>90</v>
       </c>
@@ -2460,66 +2798,84 @@
       <c r="I47" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K47" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="L47" s="30">
+        <v>1977556.075</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
+        <v>27</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="19">
+        <v>4817479.0370340003</v>
+      </c>
+      <c r="E48" s="18">
+        <v>3.2370000000000003E-2</v>
+      </c>
+      <c r="F48" s="18">
+        <v>0.16286900000000001</v>
+      </c>
+      <c r="G48" s="18">
+        <v>0.671462</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0.969059</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L48" s="30">
+        <v>2007365.835</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>49</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48" s="19">
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="19">
         <v>4748163.764366</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E49" s="18">
         <v>9.7300000000000008E-3</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F49" s="18">
         <v>0.14613699999999999</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G49" s="18">
         <v>0.65666800000000003</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H49" s="6">
         <v>1.0523260000000001</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D49" s="19">
-        <v>4817479.0370340003</v>
-      </c>
-      <c r="E49" s="18">
-        <v>3.2370000000000003E-2</v>
-      </c>
-      <c r="F49" s="18">
-        <v>0.16286900000000001</v>
-      </c>
-      <c r="G49" s="18">
-        <v>0.671462</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0.969059</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K49" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="L49" s="30">
+        <v>2020294.7709999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>16</v>
       </c>
@@ -2547,8 +2903,14 @@
       <c r="I50" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K50" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="L50" s="30">
+        <v>2078324.7590000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>62</v>
       </c>
@@ -2575,6 +2937,442 @@
       </c>
       <c r="I51" s="1" t="s">
         <v>116</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="L51" s="30">
+        <v>2092598.4920000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L51">
+    <sortCondition ref="L2:L51"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51BAEB2-4EEB-2648-9778-ED8E9A5389F0}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1753903.4231469999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1786923.2715990001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1581650.328614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1684782.927619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1943801.4315190001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2078324.7590630001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1958786.66735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1837592.9952809999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1749658.8599390001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1900777.38273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="19">
+        <v>2007365.834818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1556393.4148349999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1937414.773576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="19">
+        <v>1582363.359775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1734810.6660509999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1688707.753971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1939536.0566139999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1627596.4369389999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="19">
+        <v>2020294.7709309999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1920781.443313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="19">
+        <v>1583082.3111620001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="19">
+        <v>1607620.128328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="19">
+        <v>1605652.9632260001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="19">
+        <v>1911891.6281089999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="19">
+        <v>1635242.5696409999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="19">
+        <v>1608134.587358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="19">
+        <v>2092598.4916620001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="19">
+        <v>1688127.6415800001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="19">
+        <v>1687294.8795390001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="19">
+        <v>1886671.8301870001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="19">
+        <v>1559467.2261059999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="19">
+        <v>1802105.325127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="19">
+        <v>1569544.529235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="19">
+        <v>1636620.422542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="19">
+        <v>1704846.204377</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="19">
+        <v>1797516.8198879999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="19">
+        <v>1635218.901634</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="19">
+        <v>1815438.620227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="19">
+        <v>1773620.9568159999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="19">
+        <v>1958913.9080360001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="19">
+        <v>1630906.907904</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="19">
+        <v>1935022.3558139999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="19">
+        <v>1955170.2963940001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="19">
+        <v>1598045.9462570001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="19">
+        <v>1977556.0747849999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="19">
+        <v>1742049.1910679999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="19">
+        <v>1585832.5218549999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="19">
+        <v>1821244.844027</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="19">
+        <v>1949967.789258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="19">
+        <v>1648691.974286</v>
       </c>
     </row>
   </sheetData>

--- a/maps/FL/FL20C_candidates.xlsx
+++ b/maps/FL/FL20C_candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/FL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9C3517-BA7A-2E41-B111-53E610F38138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD229C0-C593-1643-9F8E-B23AF98537F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7400" yWindow="6560" windowWidth="27640" windowHeight="17500" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -1137,7 +1137,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
